--- a/Code/Results/Cases/Case_2_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.658782779756223</v>
+        <v>0.5216948156410979</v>
       </c>
       <c r="C2">
-        <v>0.3935025835712338</v>
+        <v>0.1607593003602119</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2593465446197811</v>
+        <v>0.1519330985054026</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1804257154877789</v>
+        <v>0.1717701907042866</v>
       </c>
       <c r="H2">
-        <v>0.150893486076157</v>
+        <v>0.3397003694199796</v>
       </c>
       <c r="I2">
-        <v>0.09272727476742659</v>
+        <v>0.2329504130913342</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.808719608821896</v>
+        <v>0.2730669012474536</v>
       </c>
       <c r="N2">
-        <v>0.6832577129254247</v>
+        <v>0.8616731018148371</v>
       </c>
       <c r="O2">
-        <v>0.6500270201294427</v>
+        <v>0.9259042475361383</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.451586070503197</v>
+        <v>0.4552035214109935</v>
       </c>
       <c r="C3">
-        <v>0.3509251998772811</v>
+        <v>0.146759093167617</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2269680741891307</v>
+        <v>0.1448084369238103</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1633466099546439</v>
+        <v>0.1697239829587218</v>
       </c>
       <c r="H3">
-        <v>0.1479432046843883</v>
+        <v>0.3420254380100118</v>
       </c>
       <c r="I3">
-        <v>0.09592838745372667</v>
+        <v>0.2367776845200087</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7012541648431423</v>
+        <v>0.2414966378619781</v>
       </c>
       <c r="N3">
-        <v>0.6785321725244771</v>
+        <v>0.8621917839277486</v>
       </c>
       <c r="O3">
-        <v>0.6073282815051897</v>
+        <v>0.9262051951714625</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.324162274716173</v>
+        <v>0.4142154061425742</v>
       </c>
       <c r="C4">
-        <v>0.3247267645598271</v>
+        <v>0.1381076210527965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2075901291072242</v>
+        <v>0.140570785456724</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1534119757128281</v>
+        <v>0.1686601756331214</v>
       </c>
       <c r="H4">
-        <v>0.1464986516910329</v>
+        <v>0.3436517064196352</v>
       </c>
       <c r="I4">
-        <v>0.09830943822643512</v>
+        <v>0.2393206894475561</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6355847557281464</v>
+        <v>0.2221344238830838</v>
       </c>
       <c r="N4">
-        <v>0.6763922456506535</v>
+        <v>0.8628602373488121</v>
       </c>
       <c r="O4">
-        <v>0.5830415493717709</v>
+        <v>0.9272061496430695</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.272175309192676</v>
+        <v>0.3974728340764671</v>
       </c>
       <c r="C5">
-        <v>0.314034619691796</v>
+        <v>0.1345684059686363</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1998077724932088</v>
+        <v>0.1388781052501358</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1494924835236873</v>
+        <v>0.1682749071413383</v>
       </c>
       <c r="H5">
-        <v>0.1459978946452054</v>
+        <v>0.3443643650390413</v>
       </c>
       <c r="I5">
-        <v>0.09937929189225869</v>
+        <v>0.2404054308960397</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6088885875889218</v>
+        <v>0.2142498820155225</v>
       </c>
       <c r="N5">
-        <v>0.6757054804167595</v>
+        <v>0.8632208713843355</v>
       </c>
       <c r="O5">
-        <v>0.5735999106737921</v>
+        <v>0.9278188555827711</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.263538983274429</v>
+        <v>0.3946903874862926</v>
       </c>
       <c r="C6">
-        <v>0.3122581696616606</v>
+        <v>0.1339799032277114</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1985220820143851</v>
+        <v>0.1385990956194192</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1488491636048579</v>
+        <v>0.16821384192599</v>
       </c>
       <c r="H6">
-        <v>0.1459199302393657</v>
+        <v>0.3444857173290288</v>
       </c>
       <c r="I6">
-        <v>0.09956281278447143</v>
+        <v>0.2405884745944142</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6044592051339279</v>
+        <v>0.2129410102534948</v>
       </c>
       <c r="N6">
-        <v>0.6756024575700081</v>
+        <v>0.8632860902908988</v>
       </c>
       <c r="O6">
-        <v>0.5720587869018487</v>
+        <v>0.9279329524472928</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.323461418166232</v>
+        <v>0.4139897686340248</v>
       </c>
       <c r="C7">
-        <v>0.324582634219226</v>
+        <v>0.1380599450010749</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2074847261435764</v>
+        <v>0.1405478192237695</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1533586066454831</v>
+        <v>0.1686547846810882</v>
       </c>
       <c r="H7">
-        <v>0.1464915479747972</v>
+        <v>0.343661115394525</v>
       </c>
       <c r="I7">
-        <v>0.09832346992116747</v>
+        <v>0.2393351226209113</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6352244786972463</v>
+        <v>0.2220280668157315</v>
       </c>
       <c r="N7">
-        <v>0.6763822415286569</v>
+        <v>0.8628647434247867</v>
       </c>
       <c r="O7">
-        <v>0.5829124109123001</v>
+        <v>0.9272135841102056</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.587377812525034</v>
+        <v>0.4988029810166097</v>
       </c>
       <c r="C8">
-        <v>0.3788321768707306</v>
+        <v>0.155943639435776</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2480706682014571</v>
+        <v>0.1494479553326045</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1744161949320215</v>
+        <v>0.171024579190707</v>
       </c>
       <c r="H8">
-        <v>0.1497973856157344</v>
+        <v>0.3404608102026785</v>
       </c>
       <c r="I8">
-        <v>0.09374173305217859</v>
+        <v>0.2342299322428278</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7715911655386307</v>
+        <v>0.2621769900891309</v>
       </c>
       <c r="N8">
-        <v>0.6814664267522232</v>
+        <v>0.861779438924863</v>
       </c>
       <c r="O8">
-        <v>0.6348853113542958</v>
+        <v>0.9258383600262192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.103779202909237</v>
+        <v>0.6637893944923405</v>
       </c>
       <c r="C9">
-        <v>0.4848787203644918</v>
+        <v>0.19056617134666</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3322283796574368</v>
+        <v>0.1679990040341721</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.220558868952601</v>
+        <v>0.1772084661778095</v>
       </c>
       <c r="H9">
-        <v>0.1593987249158317</v>
+        <v>0.3357622353057934</v>
       </c>
       <c r="I9">
-        <v>0.08828707742405406</v>
+        <v>0.2257546461852318</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.042212471066875</v>
+        <v>0.3410803134584341</v>
       </c>
       <c r="N9">
-        <v>0.6977779730784022</v>
+        <v>0.8624190208188764</v>
       </c>
       <c r="O9">
-        <v>0.7535498510773948</v>
+        <v>0.9296381479235407</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.483244201512321</v>
+        <v>0.7841435535194137</v>
       </c>
       <c r="C10">
-        <v>0.5627530218155528</v>
+        <v>0.2157213276730943</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3977117047171959</v>
+        <v>0.1823151955183775</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2581059300608075</v>
+        <v>0.1827014668032803</v>
       </c>
       <c r="H10">
-        <v>0.1686586526513167</v>
+        <v>0.3332731957388972</v>
       </c>
       <c r="I10">
-        <v>0.08677121842342572</v>
+        <v>0.2204699743691663</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.244062932768259</v>
+        <v>0.3991560810428894</v>
       </c>
       <c r="N10">
-        <v>0.7140698244023156</v>
+        <v>0.8645654852397797</v>
       </c>
       <c r="O10">
-        <v>0.853043179252353</v>
+        <v>0.9364211032266496</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.656072002693691</v>
+        <v>0.8386989862796668</v>
       </c>
       <c r="C11">
-        <v>0.5982130583794003</v>
+        <v>0.2271019921744823</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4285037114457637</v>
+        <v>0.1889809482173845</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2761420754881101</v>
+        <v>0.185409386508482</v>
       </c>
       <c r="H11">
-        <v>0.1734223383261622</v>
+        <v>0.3323503170089168</v>
       </c>
       <c r="I11">
-        <v>0.08670252054260885</v>
+        <v>0.2182716396973952</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.336804769519162</v>
+        <v>0.4255997237518301</v>
       </c>
       <c r="N11">
-        <v>0.7225216012414535</v>
+        <v>0.8659038905289833</v>
       </c>
       <c r="O11">
-        <v>0.9014758495152648</v>
+        <v>0.940380220669482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.721563168184048</v>
+        <v>0.8593286984240081</v>
       </c>
       <c r="C12">
-        <v>0.6116494434129436</v>
+        <v>0.2314023539889263</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4403269542970563</v>
+        <v>0.191527407290863</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2831238867429988</v>
+        <v>0.1864650840993249</v>
       </c>
       <c r="H12">
-        <v>0.1753119396413041</v>
+        <v>0.332030982789334</v>
       </c>
       <c r="I12">
-        <v>0.08677291214047145</v>
+        <v>0.2174688694319293</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.37207880449759</v>
+        <v>0.4356167020113162</v>
       </c>
       <c r="N12">
-        <v>0.7258810192821556</v>
+        <v>0.8664625696537058</v>
       </c>
       <c r="O12">
-        <v>0.9203166166281278</v>
+        <v>0.9420055419220716</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.70745621523173</v>
+        <v>0.8548870423484232</v>
       </c>
       <c r="C13">
-        <v>0.6087552436650299</v>
+        <v>0.2304766095323032</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.437773045073925</v>
+        <v>0.1909779867917294</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2816132313379427</v>
+        <v>0.1862363715025737</v>
       </c>
       <c r="H13">
-        <v>0.1749010618546549</v>
+        <v>0.3320984161888134</v>
       </c>
       <c r="I13">
-        <v>0.08675334602439477</v>
+        <v>0.2176404380376411</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.364474650570273</v>
+        <v>0.4334592210298069</v>
       </c>
       <c r="N13">
-        <v>0.7251502864187529</v>
+        <v>0.8663399449672227</v>
       </c>
       <c r="O13">
-        <v>0.9162359312966544</v>
+        <v>0.9416498844614978</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.661459006134635</v>
+        <v>0.8403967987403576</v>
       </c>
       <c r="C14">
-        <v>0.5993182877850245</v>
+        <v>0.227455972349162</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4294730379741338</v>
+        <v>0.1891899989376284</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2767133423080423</v>
+        <v>0.185495631673092</v>
       </c>
       <c r="H14">
-        <v>0.1735760411289817</v>
+        <v>0.3323234409771629</v>
       </c>
       <c r="I14">
-        <v>0.08670633714449494</v>
+        <v>0.2182049995966224</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.339703549311835</v>
+        <v>0.4264237607254415</v>
       </c>
       <c r="N14">
-        <v>0.722794742370013</v>
+        <v>0.8659488152738675</v>
       </c>
       <c r="O14">
-        <v>0.903015599128139</v>
+        <v>0.9405114070774516</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.633290724859705</v>
+        <v>0.8315172586051176</v>
       </c>
       <c r="C15">
-        <v>0.5935390868962429</v>
+        <v>0.2256045328169307</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.424410849016482</v>
+        <v>0.1880977139954894</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2737322488018208</v>
+        <v>0.1850458545837057</v>
       </c>
       <c r="H15">
-        <v>0.1727757859718082</v>
+        <v>0.3324652011172873</v>
       </c>
       <c r="I15">
-        <v>0.08669031698356022</v>
+        <v>0.2185546799068518</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.32455138283764</v>
+        <v>0.42211476762769</v>
       </c>
       <c r="N15">
-        <v>0.7213728847992229</v>
+        <v>0.8657159842174309</v>
       </c>
       <c r="O15">
-        <v>0.8949842876221794</v>
+        <v>0.9398304915205529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.471954941752188</v>
+        <v>0.7805742063208641</v>
       </c>
       <c r="C16">
-        <v>0.5604366103846417</v>
+        <v>0.2149762941280642</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.395721129267919</v>
+        <v>0.1818826776875113</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.256947673670382</v>
+        <v>0.1825287227432639</v>
       </c>
       <c r="H16">
-        <v>0.1683589671776815</v>
+        <v>0.3333377241162836</v>
       </c>
       <c r="I16">
-        <v>0.08678880041112791</v>
+        <v>0.2206177894144403</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.238022417228024</v>
+        <v>0.3974284060115565</v>
       </c>
       <c r="N16">
-        <v>0.7135391992681264</v>
+        <v>0.8644852841360233</v>
       </c>
       <c r="O16">
-        <v>0.8499455383086456</v>
+        <v>0.9361799839828251</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.373044189787606</v>
+        <v>0.7492716019569343</v>
       </c>
       <c r="C17">
-        <v>0.540140545292104</v>
+        <v>0.2084400134691009</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.378390737924974</v>
+        <v>0.178109379666644</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2469056776662057</v>
+        <v>0.181038245363915</v>
       </c>
       <c r="H17">
-        <v>0.1657950265023729</v>
+        <v>0.3339266410368111</v>
       </c>
       <c r="I17">
-        <v>0.08701316687219673</v>
+        <v>0.2219362030920813</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.185190588312139</v>
+        <v>0.3822902994134907</v>
       </c>
       <c r="N17">
-        <v>0.7090064121127142</v>
+        <v>0.8638228570388549</v>
       </c>
       <c r="O17">
-        <v>0.8231588014365059</v>
+        <v>0.9341645861666166</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.316171865873855</v>
+        <v>0.7312489635577322</v>
       </c>
       <c r="C18">
-        <v>0.5284698192922122</v>
+        <v>0.2046746461558371</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3685159879433044</v>
+        <v>0.1759534879027171</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2412188292938851</v>
+        <v>0.1802006345677114</v>
       </c>
       <c r="H18">
-        <v>0.1643717971897658</v>
+        <v>0.334285078276757</v>
       </c>
       <c r="I18">
-        <v>0.08720020371806214</v>
+        <v>0.2227138734352678</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.154888170905657</v>
+        <v>0.3735855966161736</v>
       </c>
       <c r="N18">
-        <v>0.7064966217343311</v>
+        <v>0.8634759280922566</v>
       </c>
       <c r="O18">
-        <v>0.8080475912539811</v>
+        <v>0.9330875737904023</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.296918612325385</v>
+        <v>0.7251437205254092</v>
       </c>
       <c r="C19">
-        <v>0.5245187327363112</v>
+        <v>0.2033987568273119</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3651880339446762</v>
+        <v>0.1752260073103216</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.239308227961061</v>
+        <v>0.1799204067261329</v>
       </c>
       <c r="H19">
-        <v>0.1638985695406774</v>
+        <v>0.334409822923476</v>
       </c>
       <c r="I19">
-        <v>0.08727328070553142</v>
+        <v>0.222980499796062</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.144642242291937</v>
+        <v>0.3706387412172631</v>
       </c>
       <c r="N19">
-        <v>0.7056632963547287</v>
+        <v>0.8633643235157109</v>
       </c>
       <c r="O19">
-        <v>0.8029807040950772</v>
+        <v>0.9327370176759473</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.38357138469155</v>
+        <v>0.7526057116123752</v>
       </c>
       <c r="C20">
-        <v>0.5423007580175749</v>
+        <v>0.2091364212402027</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3802258076265588</v>
+        <v>0.1785095605706388</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2479653480191217</v>
+        <v>0.181194871791412</v>
       </c>
       <c r="H20">
-        <v>0.1660625890812426</v>
+        <v>0.3338619099328639</v>
       </c>
       <c r="I20">
-        <v>0.08698323104346173</v>
+        <v>0.2217938518495828</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.19080566622997</v>
+        <v>0.3839015364489384</v>
       </c>
       <c r="N20">
-        <v>0.7094787944391356</v>
+        <v>0.8638898476521888</v>
       </c>
       <c r="O20">
-        <v>0.8259793695169719</v>
+        <v>0.9343706187512311</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.67496815174178</v>
+        <v>0.8446537386895443</v>
       </c>
       <c r="C21">
-        <v>0.6020898923011089</v>
+        <v>0.2283434597524661</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.431906371597421</v>
+        <v>0.1897145675880054</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2781483153498954</v>
+        <v>0.1857123819267343</v>
       </c>
       <c r="H21">
-        <v>0.1739628526952686</v>
+        <v>0.3322565275246916</v>
       </c>
       <c r="I21">
-        <v>0.08671746931070601</v>
+        <v>0.2180383674638655</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.346975034636515</v>
+        <v>0.4284901568213826</v>
       </c>
       <c r="N21">
-        <v>0.7234822328688324</v>
+        <v>0.8660622937857312</v>
       </c>
       <c r="O21">
-        <v>0.9068847846289714</v>
+        <v>0.9408423796531054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.865683236469351</v>
+        <v>0.9046413707030183</v>
       </c>
       <c r="C22">
-        <v>0.6412165746648668</v>
+        <v>0.2408423424349166</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4666423484370483</v>
+        <v>0.1971676851706263</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.298767541473282</v>
+        <v>0.1888413457025848</v>
       </c>
       <c r="H22">
-        <v>0.1796289403263245</v>
+        <v>0.3313830091363457</v>
       </c>
       <c r="I22">
-        <v>0.08710934762051536</v>
+        <v>0.2157570576827155</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.449954323338744</v>
+        <v>0.4576507976543098</v>
       </c>
       <c r="N22">
-        <v>0.7335653104122741</v>
+        <v>0.8677842700142975</v>
       </c>
       <c r="O22">
-        <v>0.9627003577288917</v>
+        <v>0.945807214882052</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.76386489402114</v>
+        <v>0.8726409276771392</v>
       </c>
       <c r="C23">
-        <v>0.6203280314903736</v>
+        <v>0.2341764812066458</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4480087113892424</v>
+        <v>0.1931778398161086</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2876759283978174</v>
+        <v>0.1871551441009274</v>
       </c>
       <c r="H23">
-        <v>0.1765565980641384</v>
+        <v>0.3318331370524135</v>
       </c>
       <c r="I23">
-        <v>0.08684597020797824</v>
+        <v>0.2169587580934191</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.394900817940695</v>
+        <v>0.4420855075928074</v>
       </c>
       <c r="N23">
-        <v>0.7280953655609466</v>
+        <v>0.8668376353285083</v>
       </c>
       <c r="O23">
-        <v>0.9326262168220296</v>
+        <v>0.9430899638791459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.37881206348402</v>
+        <v>0.7510984426272671</v>
       </c>
       <c r="C24">
-        <v>0.5413241331033589</v>
+        <v>0.2088215988553941</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3793958976588243</v>
+        <v>0.1783285969787229</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2474860029285963</v>
+        <v>0.1811240009288824</v>
       </c>
       <c r="H24">
-        <v>0.1659414662444618</v>
+        <v>0.3338911130007034</v>
       </c>
       <c r="I24">
-        <v>0.08699658476612981</v>
+        <v>0.2218581475008854</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.188266869088501</v>
+        <v>0.3831731011677277</v>
       </c>
       <c r="N24">
-        <v>0.7092649315386268</v>
+        <v>0.8638594555550299</v>
       </c>
       <c r="O24">
-        <v>0.8247032943130961</v>
+        <v>0.9342772170698623</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.964125907908056</v>
+        <v>0.6193039122467212</v>
       </c>
       <c r="C25">
-        <v>0.456209945057708</v>
+        <v>0.1812487146434592</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3088865447625793</v>
+        <v>0.1628611134718341</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2074882398000568</v>
+        <v>0.1753697089420072</v>
       </c>
       <c r="H25">
-        <v>0.1564371146547856</v>
+        <v>0.3368643184179518</v>
       </c>
       <c r="I25">
-        <v>0.08935089619472159</v>
+        <v>0.227882403330316</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9685530347085418</v>
+        <v>0.3197164188841768</v>
       </c>
       <c r="N25">
-        <v>0.6926424391317596</v>
+        <v>0.8619508116596251</v>
       </c>
       <c r="O25">
-        <v>0.7194459227329162</v>
+        <v>0.9279115104626072</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5216948156410979</v>
+        <v>1.658782779756109</v>
       </c>
       <c r="C2">
-        <v>0.1607593003602119</v>
+        <v>0.3935025835712338</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1519330985054026</v>
+        <v>0.2593465446197527</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1717701907042866</v>
+        <v>0.1804257154877149</v>
       </c>
       <c r="H2">
-        <v>0.3397003694199796</v>
+        <v>0.1508934860761499</v>
       </c>
       <c r="I2">
-        <v>0.2329504130913342</v>
+        <v>0.09272727476742659</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2730669012474536</v>
+        <v>0.808719608821896</v>
       </c>
       <c r="N2">
-        <v>0.8616731018148371</v>
+        <v>0.6832577129254318</v>
       </c>
       <c r="O2">
-        <v>0.9259042475361383</v>
+        <v>0.6500270201293858</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4552035214109935</v>
+        <v>1.451586070503225</v>
       </c>
       <c r="C3">
-        <v>0.146759093167617</v>
+        <v>0.3509251998770822</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1448084369238103</v>
+        <v>0.2269680741891307</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.1697239829587218</v>
+        <v>0.163346609954651</v>
       </c>
       <c r="H3">
-        <v>0.3420254380100118</v>
+        <v>0.1479432046843883</v>
       </c>
       <c r="I3">
-        <v>0.2367776845200087</v>
+        <v>0.09592838745372667</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2414966378619781</v>
+        <v>0.701254164843121</v>
       </c>
       <c r="N3">
-        <v>0.8621917839277486</v>
+        <v>0.6785321725245339</v>
       </c>
       <c r="O3">
-        <v>0.9262051951714625</v>
+        <v>0.6073282815051897</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4142154061425742</v>
+        <v>1.324162274716059</v>
       </c>
       <c r="C4">
-        <v>0.1381076210527965</v>
+        <v>0.3247267645595713</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.140570785456724</v>
+        <v>0.2075901291072242</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1686601756331214</v>
+        <v>0.1534119757128281</v>
       </c>
       <c r="H4">
-        <v>0.3436517064196352</v>
+        <v>0.14649865169104</v>
       </c>
       <c r="I4">
-        <v>0.2393206894475561</v>
+        <v>0.09830943822641913</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2221344238830838</v>
+        <v>0.6355847557281535</v>
       </c>
       <c r="N4">
-        <v>0.8628602373488121</v>
+        <v>0.6763922456506464</v>
       </c>
       <c r="O4">
-        <v>0.9272061496430695</v>
+        <v>0.5830415493718277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3974728340764671</v>
+        <v>1.272175309192647</v>
       </c>
       <c r="C5">
-        <v>0.1345684059686363</v>
+        <v>0.3140346196918387</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1388781052501358</v>
+        <v>0.1998077724932372</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1682749071413383</v>
+        <v>0.1494924835236944</v>
       </c>
       <c r="H5">
-        <v>0.3443643650390413</v>
+        <v>0.1459978946453191</v>
       </c>
       <c r="I5">
-        <v>0.2404054308960397</v>
+        <v>0.09937929189225692</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2142498820155225</v>
+        <v>0.6088885875889147</v>
       </c>
       <c r="N5">
-        <v>0.8632208713843355</v>
+        <v>0.6757054804167595</v>
       </c>
       <c r="O5">
-        <v>0.9278188555827711</v>
+        <v>0.5735999106737779</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3946903874862926</v>
+        <v>1.263538983274429</v>
       </c>
       <c r="C6">
-        <v>0.1339799032277114</v>
+        <v>0.3122581696619022</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1385990956194192</v>
+        <v>0.1985220820143994</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.16821384192599</v>
+        <v>0.1488491636049289</v>
       </c>
       <c r="H6">
-        <v>0.3444857173290288</v>
+        <v>0.1459199302394794</v>
       </c>
       <c r="I6">
-        <v>0.2405884745944142</v>
+        <v>0.09956281278446966</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2129410102534948</v>
+        <v>0.6044592051339421</v>
       </c>
       <c r="N6">
-        <v>0.8632860902908988</v>
+        <v>0.6756024575700437</v>
       </c>
       <c r="O6">
-        <v>0.9279329524472928</v>
+        <v>0.5720587869018487</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4139897686340248</v>
+        <v>1.323461418166204</v>
       </c>
       <c r="C7">
-        <v>0.1380599450010749</v>
+        <v>0.3245826342195528</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1405478192237695</v>
+        <v>0.2074847261436261</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1686547846810882</v>
+        <v>0.1533586066454973</v>
       </c>
       <c r="H7">
-        <v>0.343661115394525</v>
+        <v>0.1464915479747972</v>
       </c>
       <c r="I7">
-        <v>0.2393351226209113</v>
+        <v>0.09832346992116392</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2220280668157315</v>
+        <v>0.6352244786972534</v>
       </c>
       <c r="N7">
-        <v>0.8628647434247867</v>
+        <v>0.6763822415287137</v>
       </c>
       <c r="O7">
-        <v>0.9272135841102056</v>
+        <v>0.5829124109123569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4988029810166097</v>
+        <v>1.587377812525062</v>
       </c>
       <c r="C8">
-        <v>0.155943639435776</v>
+        <v>0.3788321768709864</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1494479553326045</v>
+        <v>0.2480706682014073</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.171024579190707</v>
+        <v>0.1744161949320784</v>
       </c>
       <c r="H8">
-        <v>0.3404608102026785</v>
+        <v>0.1497973856158481</v>
       </c>
       <c r="I8">
-        <v>0.2342299322428278</v>
+        <v>0.09374173305217859</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2621769900891309</v>
+        <v>0.7715911655386236</v>
       </c>
       <c r="N8">
-        <v>0.861779438924863</v>
+        <v>0.6814664267522232</v>
       </c>
       <c r="O8">
-        <v>0.9258383600262192</v>
+        <v>0.6348853113543527</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6637893944923405</v>
+        <v>2.103779202909237</v>
       </c>
       <c r="C9">
-        <v>0.19056617134666</v>
+        <v>0.4848787203644065</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1679990040341721</v>
+        <v>0.3322283796574439</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.1772084661778095</v>
+        <v>0.220558868952601</v>
       </c>
       <c r="H9">
-        <v>0.3357622353057934</v>
+        <v>0.1593987249158317</v>
       </c>
       <c r="I9">
-        <v>0.2257546461852318</v>
+        <v>0.08828707742405584</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3410803134584341</v>
+        <v>1.042212471066875</v>
       </c>
       <c r="N9">
-        <v>0.8624190208188764</v>
+        <v>0.697777973078459</v>
       </c>
       <c r="O9">
-        <v>0.9296381479235407</v>
+        <v>0.7535498510773522</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7841435535194137</v>
+        <v>2.483244201512207</v>
       </c>
       <c r="C10">
-        <v>0.2157213276730943</v>
+        <v>0.562753021815297</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1823151955183775</v>
+        <v>0.3977117047171816</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.1827014668032803</v>
+        <v>0.2581059300607436</v>
       </c>
       <c r="H10">
-        <v>0.3332731957388972</v>
+        <v>0.1686586526513167</v>
       </c>
       <c r="I10">
-        <v>0.2204699743691663</v>
+        <v>0.08677121842342217</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3991560810428894</v>
+        <v>1.24406293276823</v>
       </c>
       <c r="N10">
-        <v>0.8645654852397797</v>
+        <v>0.7140698244023156</v>
       </c>
       <c r="O10">
-        <v>0.9364211032266496</v>
+        <v>0.853043179252353</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8386989862796668</v>
+        <v>2.656072002693747</v>
       </c>
       <c r="C11">
-        <v>0.2271019921744823</v>
+        <v>0.5982130583794287</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1889809482173845</v>
+        <v>0.4285037114457424</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.185409386508482</v>
+        <v>0.2761420754880533</v>
       </c>
       <c r="H11">
-        <v>0.3323503170089168</v>
+        <v>0.173422338326148</v>
       </c>
       <c r="I11">
-        <v>0.2182716396973952</v>
+        <v>0.08670252054260885</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4255997237518301</v>
+        <v>1.336804769519162</v>
       </c>
       <c r="N11">
-        <v>0.8659038905289833</v>
+        <v>0.7225216012414535</v>
       </c>
       <c r="O11">
-        <v>0.940380220669482</v>
+        <v>0.9014758495151796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8593286984240081</v>
+        <v>2.721563168184105</v>
       </c>
       <c r="C12">
-        <v>0.2314023539889263</v>
+        <v>0.6116494434129436</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.191527407290863</v>
+        <v>0.4403269542970421</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.1864650840993249</v>
+        <v>0.2831238867430415</v>
       </c>
       <c r="H12">
-        <v>0.332030982789334</v>
+        <v>0.1753119396413041</v>
       </c>
       <c r="I12">
-        <v>0.2174688694319293</v>
+        <v>0.08677291214045724</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4356167020113162</v>
+        <v>1.37207880449759</v>
       </c>
       <c r="N12">
-        <v>0.8664625696537058</v>
+        <v>0.7258810192820846</v>
       </c>
       <c r="O12">
-        <v>0.9420055419220716</v>
+        <v>0.9203166166280425</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8548870423484232</v>
+        <v>2.707456215231844</v>
       </c>
       <c r="C13">
-        <v>0.2304766095323032</v>
+        <v>0.608755243665172</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1909779867917294</v>
+        <v>0.4377730450739179</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.1862363715025737</v>
+        <v>0.2816132313379427</v>
       </c>
       <c r="H13">
-        <v>0.3320984161888134</v>
+        <v>0.1749010618546549</v>
       </c>
       <c r="I13">
-        <v>0.2176404380376411</v>
+        <v>0.08675334602440898</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4334592210298069</v>
+        <v>1.364474650570301</v>
       </c>
       <c r="N13">
-        <v>0.8663399449672227</v>
+        <v>0.7251502864186961</v>
       </c>
       <c r="O13">
-        <v>0.9416498844614978</v>
+        <v>0.9162359312966544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8403967987403576</v>
+        <v>2.661459006134805</v>
       </c>
       <c r="C14">
-        <v>0.227455972349162</v>
+        <v>0.5993182877852234</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1891899989376284</v>
+        <v>0.4294730379741267</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.185495631673092</v>
+        <v>0.2767133423079429</v>
       </c>
       <c r="H14">
-        <v>0.3323234409771629</v>
+        <v>0.1735760411289817</v>
       </c>
       <c r="I14">
-        <v>0.2182049995966224</v>
+        <v>0.08670633714449494</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4264237607254415</v>
+        <v>1.339703549311821</v>
       </c>
       <c r="N14">
-        <v>0.8659488152738675</v>
+        <v>0.7227947423700556</v>
       </c>
       <c r="O14">
-        <v>0.9405114070774516</v>
+        <v>0.9030155991281958</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8315172586051176</v>
+        <v>2.633290724859876</v>
       </c>
       <c r="C15">
-        <v>0.2256045328169307</v>
+        <v>0.5935390868964419</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1880977139954894</v>
+        <v>0.4244108490164962</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1850458545837057</v>
+        <v>0.2737322488018066</v>
       </c>
       <c r="H15">
-        <v>0.3324652011172873</v>
+        <v>0.1727757859718082</v>
       </c>
       <c r="I15">
-        <v>0.2185546799068518</v>
+        <v>0.08669031698357443</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.42211476762769</v>
+        <v>1.32455138283764</v>
       </c>
       <c r="N15">
-        <v>0.8657159842174309</v>
+        <v>0.7213728847992087</v>
       </c>
       <c r="O15">
-        <v>0.9398304915205529</v>
+        <v>0.8949842876221794</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7805742063208641</v>
+        <v>2.471954941752301</v>
       </c>
       <c r="C16">
-        <v>0.2149762941280642</v>
+        <v>0.5604366103846417</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1818826776875113</v>
+        <v>0.3957211292679332</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1825287227432639</v>
+        <v>0.256947673670453</v>
       </c>
       <c r="H16">
-        <v>0.3333377241162836</v>
+        <v>0.1683589671776815</v>
       </c>
       <c r="I16">
-        <v>0.2206177894144403</v>
+        <v>0.0867888004111137</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3974284060115565</v>
+        <v>1.238022417228052</v>
       </c>
       <c r="N16">
-        <v>0.8644852841360233</v>
+        <v>0.7135391992681264</v>
       </c>
       <c r="O16">
-        <v>0.9361799839828251</v>
+        <v>0.8499455383086456</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7492716019569343</v>
+        <v>2.373044189787777</v>
       </c>
       <c r="C17">
-        <v>0.2084400134691009</v>
+        <v>0.5401405452921892</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.178109379666644</v>
+        <v>0.3783907379249953</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.181038245363915</v>
+        <v>0.24690567766622</v>
       </c>
       <c r="H17">
-        <v>0.3339266410368111</v>
+        <v>0.1657950265023658</v>
       </c>
       <c r="I17">
-        <v>0.2219362030920813</v>
+        <v>0.08701316687220029</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3822902994134907</v>
+        <v>1.185190588312146</v>
       </c>
       <c r="N17">
-        <v>0.8638228570388549</v>
+        <v>0.7090064121127142</v>
       </c>
       <c r="O17">
-        <v>0.9341645861666166</v>
+        <v>0.8231588014365485</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7312489635577322</v>
+        <v>2.316171865873855</v>
       </c>
       <c r="C18">
-        <v>0.2046746461558371</v>
+        <v>0.5284698192927237</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1759534879027171</v>
+        <v>0.3685159879433115</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1802006345677114</v>
+        <v>0.2412188292938708</v>
       </c>
       <c r="H18">
-        <v>0.334285078276757</v>
+        <v>0.1643717971897658</v>
       </c>
       <c r="I18">
-        <v>0.2227138734352678</v>
+        <v>0.08720020371806214</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3735855966161736</v>
+        <v>1.154888170905657</v>
       </c>
       <c r="N18">
-        <v>0.8634759280922566</v>
+        <v>0.7064966217343311</v>
       </c>
       <c r="O18">
-        <v>0.9330875737904023</v>
+        <v>0.8080475912539953</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7251437205254092</v>
+        <v>2.296918612325271</v>
       </c>
       <c r="C19">
-        <v>0.2033987568273119</v>
+        <v>0.5245187327362828</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1752260073103216</v>
+        <v>0.3651880339446336</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.1799204067261329</v>
+        <v>0.2393082279610752</v>
       </c>
       <c r="H19">
-        <v>0.334409822923476</v>
+        <v>0.1638985695405566</v>
       </c>
       <c r="I19">
-        <v>0.222980499796062</v>
+        <v>0.08727328070551721</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3706387412172631</v>
+        <v>1.14464224229193</v>
       </c>
       <c r="N19">
-        <v>0.8633643235157109</v>
+        <v>0.7056632963547145</v>
       </c>
       <c r="O19">
-        <v>0.9327370176759473</v>
+        <v>0.8029807040950061</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7526057116123752</v>
+        <v>2.383571384691777</v>
       </c>
       <c r="C20">
-        <v>0.2091364212402027</v>
+        <v>0.5423007580175181</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1785095605706388</v>
+        <v>0.3802258076265588</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.181194871791412</v>
+        <v>0.2479653480191928</v>
       </c>
       <c r="H20">
-        <v>0.3338619099328639</v>
+        <v>0.1660625890812426</v>
       </c>
       <c r="I20">
-        <v>0.2217938518495828</v>
+        <v>0.08698323104345818</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3839015364489384</v>
+        <v>1.19080566622997</v>
       </c>
       <c r="N20">
-        <v>0.8638898476521888</v>
+        <v>0.7094787944392067</v>
       </c>
       <c r="O20">
-        <v>0.9343706187512311</v>
+        <v>0.8259793695170288</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8446537386895443</v>
+        <v>2.674968151741723</v>
       </c>
       <c r="C21">
-        <v>0.2283434597524661</v>
+        <v>0.6020898923011373</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1897145675880054</v>
+        <v>0.4319063715974067</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1857123819267343</v>
+        <v>0.2781483153498243</v>
       </c>
       <c r="H21">
-        <v>0.3322565275246916</v>
+        <v>0.1739628526951549</v>
       </c>
       <c r="I21">
-        <v>0.2180383674638655</v>
+        <v>0.08671746931071311</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4284901568213826</v>
+        <v>1.346975034636529</v>
       </c>
       <c r="N21">
-        <v>0.8660622937857312</v>
+        <v>0.7234822328688324</v>
       </c>
       <c r="O21">
-        <v>0.9408423796531054</v>
+        <v>0.9068847846290282</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9046413707030183</v>
+        <v>2.865683236469295</v>
       </c>
       <c r="C22">
-        <v>0.2408423424349166</v>
+        <v>0.6412165746648952</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1971676851706263</v>
+        <v>0.4666423484370767</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.1888413457025848</v>
+        <v>0.2987675414732678</v>
       </c>
       <c r="H22">
-        <v>0.3313830091363457</v>
+        <v>0.1796289403263245</v>
       </c>
       <c r="I22">
-        <v>0.2157570576827155</v>
+        <v>0.08710934762051536</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4576507976543098</v>
+        <v>1.44995432333873</v>
       </c>
       <c r="N22">
-        <v>0.8677842700142975</v>
+        <v>0.7335653104122599</v>
       </c>
       <c r="O22">
-        <v>0.945807214882052</v>
+        <v>0.9627003577288917</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8726409276771392</v>
+        <v>2.763864894021026</v>
       </c>
       <c r="C23">
-        <v>0.2341764812066458</v>
+        <v>0.6203280314904305</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1931778398161086</v>
+        <v>0.448008711389221</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.1871551441009274</v>
+        <v>0.2876759283978032</v>
       </c>
       <c r="H23">
-        <v>0.3318331370524135</v>
+        <v>0.1765565980641384</v>
       </c>
       <c r="I23">
-        <v>0.2169587580934191</v>
+        <v>0.0868459702079889</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4420855075928074</v>
+        <v>1.394900817940723</v>
       </c>
       <c r="N23">
-        <v>0.8668376353285083</v>
+        <v>0.7280953655609324</v>
       </c>
       <c r="O23">
-        <v>0.9430899638791459</v>
+        <v>0.9326262168220865</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7510984426272671</v>
+        <v>2.378812063483849</v>
       </c>
       <c r="C24">
-        <v>0.2088215988553941</v>
+        <v>0.5413241331030179</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1783285969787229</v>
+        <v>0.3793958976588243</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1811240009288824</v>
+        <v>0.2474860029285466</v>
       </c>
       <c r="H24">
-        <v>0.3338911130007034</v>
+        <v>0.1659414662445684</v>
       </c>
       <c r="I24">
-        <v>0.2218581475008854</v>
+        <v>0.08699658476612981</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3831731011677277</v>
+        <v>1.188266869088494</v>
       </c>
       <c r="N24">
-        <v>0.8638594555550299</v>
+        <v>0.7092649315386126</v>
       </c>
       <c r="O24">
-        <v>0.9342772170698623</v>
+        <v>0.8247032943130961</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6193039122467212</v>
+        <v>1.964125907908027</v>
       </c>
       <c r="C25">
-        <v>0.1812487146434592</v>
+        <v>0.4562099450582195</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1628611134718341</v>
+        <v>0.3088865447625437</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1753697089420072</v>
+        <v>0.2074882398000497</v>
       </c>
       <c r="H25">
-        <v>0.3368643184179518</v>
+        <v>0.1564371146548922</v>
       </c>
       <c r="I25">
-        <v>0.227882403330316</v>
+        <v>0.08935089619472514</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3197164188841768</v>
+        <v>0.9685530347085276</v>
       </c>
       <c r="N25">
-        <v>0.8619508116596251</v>
+        <v>0.6926424391317596</v>
       </c>
       <c r="O25">
-        <v>0.9279115104626072</v>
+        <v>0.7194459227328593</v>
       </c>
     </row>
   </sheetData>
